--- a/Exported csv/table_H4_test_results.xlsx
+++ b/Exported csv/table_H4_test_results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Group:</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -404,7 +404,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sample</t>
+          <t>A: High Discount Countries</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>447.1498920606356</v>
+        <v>447.1499</v>
       </c>
       <c r="F2" t="n">
         <v>7.991616726876095e-98</v>
@@ -433,7 +433,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total Pop</t>
+          <t>B: Low Discount Countries</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>215.2311175978618</v>
+        <v>215.2311</v>
       </c>
       <c r="F3" t="n">
         <v>1.832975443338269e-47</v>
@@ -462,7 +462,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample &amp; pop</t>
+          <t>A &amp; B:</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.94809425219822</v>
+        <v>13.9481</v>
       </c>
       <c r="F4" t="n">
         <v>0.0002008005819965289</v>
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample and pop</t>
+          <t>A vs B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hi sig.</t>
+          <t>Hypothesis sig.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -512,6 +512,39 @@
       </c>
       <c r="G5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A vs B:</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cohen's d</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Effect Size</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3078</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Exported csv/table_H4_test_results.xlsx
+++ b/Exported csv/table_H4_test_results.xlsx
@@ -491,24 +491,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A vs B</t>
+          <t>A vs. B:</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mannwhitneyu</t>
+          <t>ttest_ind</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hypothesis sig.</t>
+          <t>Hypothsis sig</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>77366.5</v>
+        <v>4.9876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002271025107896975</v>
+        <v>3.902807969589616e-07</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
